--- a/meraki/template.xlsx
+++ b/meraki/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouj/Desktop/Meraki-Bulk-Configuration-Tool-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouj/Desktop/Meraki-Bulk-Configuration-Tool-master 2/meraki/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Hostname</t>
   </si>
@@ -68,15 +68,55 @@
   <si>
     <t>Allowed VLANs</t>
   </si>
+  <si>
+    <t>TEST-HOSTNAME</t>
+  </si>
+  <si>
+    <t>Q2GP-5GKZ-E8WY</t>
+  </si>
+  <si>
+    <t>Staging</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Admin (v120), Voice (v300)</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>Trunk to MR-33</t>
+  </si>
+  <si>
+    <t>SHUTDOWN - Not In Use</t>
+  </si>
+  <si>
+    <t>200,210,220,232,236,400</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1920,6 +1961,265 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>120</v>
+      </c>
+      <c r="L3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>120</v>
+      </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>120</v>
+      </c>
+      <c r="L5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
